--- a/ProductivitySystem.xlsx
+++ b/ProductivitySystem.xlsx
@@ -19,13 +19,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,14 +55,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,14 +429,55 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Personal Productivity System</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Use the links below to navigate:</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Tasks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Routines</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Logs</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -434,14 +488,71 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Recurrence</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Back up budget files</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -452,14 +563,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Routine Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -470,14 +599,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Task ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Task Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Completed Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Original Due</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>